--- a/medicine/Enfance/Frances_Hodgson_Burnett/Frances_Hodgson_Burnett.xlsx
+++ b/medicine/Enfance/Frances_Hodgson_Burnett/Frances_Hodgson_Burnett.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frances Eliza Hodgson, dite Hodgson Burnett est une romancière anglo-américaine, née le 24 novembre 1849 à Manchester et décédée le 29 octobre 1924 à Plandome dans l'État de New York.
 Elle est connue pour être l'une des pionnières du roman d'apprentissage pour enfants.
@@ -514,13 +526,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse
-Frances Eliza Hodgson naît le 24 novembre 1849 dans le quartier de Cheetham Hill à Manchester, en Angleterre. En 1853, à l’âge de trois ans, elle perd son père qui laisse sa famille dans une misère extrême. Cette période de sa vie a un grand impact sur les motifs de son existence et sa conscience : dans plusieurs de ses romans, elle parle de la pauvreté et des différences entre les classes sociales. En 1865, elle émigre avec sa famille aux États-Unis, dans le Tennessee, et obtient la nationalité américaine, la même année. Elle partage son temps entre l'Angleterre, où elle fait de nombreux longs séjours, et les États-Unis.
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frances Eliza Hodgson naît le 24 novembre 1849 dans le quartier de Cheetham Hill à Manchester, en Angleterre. En 1853, à l’âge de trois ans, elle perd son père qui laisse sa famille dans une misère extrême. Cette période de sa vie a un grand impact sur les motifs de son existence et sa conscience : dans plusieurs de ses romans, elle parle de la pauvreté et des différences entre les classes sociales. En 1865, elle émigre avec sa famille aux États-Unis, dans le Tennessee, et obtient la nationalité américaine, la même année. Elle partage son temps entre l'Angleterre, où elle fait de nombreux longs séjours, et les États-Unis.
 En 1872, elle épouse Swan Burnett, qui devient médecin. Ils vivent deux ans à Paris, où elle donne naissance à deux garçons. La famille retourne aux États-Unis. Elle y commence à écrire des romans.
 Menant une vie très mondaine et aimant le luxe, elle divorce en 1898 et se remarie, en 1900, avec Stephen Townsend, de dix ans son cadet. Le couple divorce deux ans plus tard.
 Ses romans ont pour thème l'enfance. Ils l'ont rendue vraiment connue dès 1886, à la parution de son tout premier livre : Le Petit Lord Fauntleroy (Little Lord Fauntleroy). Par la suite, nombre de ses romans pour enfants deviennent connus et reconnus. Elle a aussi écrit des romans romantiques pour adultes, qui ont également eu du succès.
-Mort
-Frances Eliza Hodgson passe les dix-sept dernières années de sa vie à New York, où elle meurt, en 1924, à soixante-quatorze ans. En 1936, une statue est érigée en son honneur à Central Park, dans le Conservatory Garden. Elle représente les deux célèbres personnages de son roman Le Jardin secret (The Secret Garden).
 </t>
         </is>
       </c>
@@ -546,20 +561,96 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mort</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frances Eliza Hodgson passe les dix-sept dernières années de sa vie à New York, où elle meurt, en 1924, à soixante-quatorze ans. En 1936, une statue est érigée en son honneur à Central Park, dans le Conservatory Garden. Elle représente les deux célèbres personnages de son roman Le Jardin secret (The Secret Garden).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Frances_Hodgson_Burnett</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frances_Hodgson_Burnett</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Parutions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Romans en français
-Note : la première date est celle de la première édition en langue française.
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans en français</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Note : la première date est celle de la première édition en langue française.
 Sur une quarantaine de romans publiés, les trois ci-dessous ont eu une renommée mondiale et ont été adaptés plusieurs fois au cinéma et à la télévision.
-1888 : Le Petit Lord Fauntleroy (Little Lord Fauntleroy, 1886). Publication : Paris, éd. C. Delagrave, 299 p.[1].
-1891 : Princesse Sara : Aventures d'une petite écolière anglaise (Sara Crewe or What Happened at Miss Minchin's, 1888), traduction de G. Lamy, Publication : Paris, éd. Armand Colin, 181 p. Pour la seconde édition américaine, en 1905, le titre anglais sera changé en : A Little Princess : Being the Whole Story of Sara Crewe Now Told for the First Time. Lors de la seconde réédition en France en 1934, le titre sera lui aussi changé définitivement en La Petite Princesse[2].
-1921 : Le Jardin mystérieux (The Secret Garden, 1911), traduction de Mme Jean Vallette, Publication : Neuchâtel, Suisse, éd. Delachaux et Niestlé, 311 p.[3]
-1934 : Le Jardin secret[4] (The Secret Garden, 1911), traduction de Valentine Leconte, illustrations de Marcel Bloch. Publication : Paris, éditions Nelson, 235 p.
-Autres romans
-1883 : Une nièce d'Amérique (A fair barbarian, 1881), trad. Marguerite du Parquet. Paris : C. Lévy, 394 p.
+1888 : Le Petit Lord Fauntleroy (Little Lord Fauntleroy, 1886). Publication : Paris, éd. C. Delagrave, 299 p..
+1891 : Princesse Sara : Aventures d'une petite écolière anglaise (Sara Crewe or What Happened at Miss Minchin's, 1888), traduction de G. Lamy, Publication : Paris, éd. Armand Colin, 181 p. Pour la seconde édition américaine, en 1905, le titre anglais sera changé en : A Little Princess : Being the Whole Story of Sara Crewe Now Told for the First Time. Lors de la seconde réédition en France en 1934, le titre sera lui aussi changé définitivement en La Petite Princesse.
+1921 : Le Jardin mystérieux (The Secret Garden, 1911), traduction de Mme Jean Vallette, Publication : Neuchâtel, Suisse, éd. Delachaux et Niestlé, 311 p.
+1934 : Le Jardin secret (The Secret Garden, 1911), traduction de Valentine Leconte, illustrations de Marcel Bloch. Publication : Paris, éditions Nelson, 235 p.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Frances_Hodgson_Burnett</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frances_Hodgson_Burnett</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Parutions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1883 : Une nièce d'Amérique (A fair barbarian, 1881), trad. Marguerite du Parquet. Paris : C. Lévy, 394 p.
 1886 : Entre deux Présidences (Through One Administration, 1883), trad. A. Hédouin. Paris : Hachette, 2 vol.
 1888 : La Fille à Lowrie (That Lass o' Lowrie's, 1877), trad. Robert de Cerisy, suivie d'une étude sur Mrs Burnett / par Th. Bentzon. Paris : J. Hetzel, 384 p.
 1896 : A lady of Quality
@@ -568,33 +659,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Frances_Hodgson_Burnett</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Frances_Hodgson_Burnett</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La Littérature pour la jeunesse en Europe occidentale (1750-1925). Histoire sociale et courants d’idées : Angleterre, France, Pays-Bas, Allemagne, Italie, de Ganna Ottevaere van Praag, Édition : Peter Lang, 1987. 497 p.,  (ISBN 3261036613)[5]. (Source ISBN pour : La Littérature pour la jeunesse en Europe occidentale (1750-1925))</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La Littérature pour la jeunesse en Europe occidentale (1750-1925). Histoire sociale et courants d’idées : Angleterre, France, Pays-Bas, Allemagne, Italie, de Ganna Ottevaere van Praag, Édition : Peter Lang, 1987. 497 p.,  (ISBN 3261036613). (Source ISBN pour : La Littérature pour la jeunesse en Europe occidentale (1750-1925))</t>
         </is>
       </c>
     </row>
